--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicRel.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicRel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94FC1E9-8212-44E5-A817-6CE401A8E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5A1EE6-71E2-4158-88BA-F4281EA2895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,12 +355,6 @@
     <t>報送時機</t>
   </si>
   <si>
-    <t>A：新貸
-B：續貸
-C：更新</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>授信企業統編</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -450,6 +444,12 @@
   </si>
   <si>
     <t>DataYMD,BankItem,BranchItem,CustId,RelId,TranCode</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新貸
+B:續貸
+C:更新</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>27</v>
@@ -1426,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>60</v>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="17" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>47</v>
@@ -1485,7 +1485,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>44</v>
@@ -1510,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>41</v>
@@ -1540,10 +1540,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>3</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>44</v>
@@ -1568,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>39</v>
@@ -1598,10 +1598,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>3</v>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>27</v>
@@ -1626,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>39</v>
@@ -1656,10 +1656,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>3</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>47</v>
@@ -1678,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1875,13 +1875,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
